--- a/target/test-classes/testdata/testDataLogin.xlsx
+++ b/target/test-classes/testdata/testDataLogin.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse workplace\SQAMAutomationDemo\DemoAutomation\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse workplace\SQAMAutomationDemo\IQF_SQA\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29D7702-0D46-42E1-AF16-67113C3ACA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0852B70B-4943-42F0-92F3-C277667880C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchByDLValid" sheetId="2" r:id="rId1"/>
     <sheet name="SearchByDLInvalid" sheetId="4" r:id="rId2"/>
-    <sheet name="SearchLicense" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="SearchByPlateNumber" sheetId="5" r:id="rId3"/>
+    <sheet name="SearchLicense" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -69,6 +70,15 @@
   </si>
   <si>
     <t>invalidBirthDate</t>
+  </si>
+  <si>
+    <t>plateno</t>
+  </si>
+  <si>
+    <t>JOSEPH M GELACIO</t>
+  </si>
+  <si>
+    <t>7/7/1977</t>
   </si>
 </sst>
 </file>
@@ -113,9 +123,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B872574-895F-4ED2-A2E6-29E0D2EC81B4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +513,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558B30F3-651B-4463-BC7F-C7EA0395B7B1}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{42EC2B19-AE18-4359-BE33-18ACC75B3836}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{FEC1B6C6-593B-4CD5-827C-CE2F3062A0CA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155CCF1E-5E2B-45E1-A2A3-3FC02C31D5A4}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/target/test-classes/testdata/testDataLogin.xlsx
+++ b/target/test-classes/testdata/testDataLogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse workplace\SQAMAutomationDemo\IQF_SQA\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0852B70B-4943-42F0-92F3-C277667880C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4494CCC-3A41-4E91-A25C-AFBDE961099B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>7/7/1977</t>
+  </si>
+  <si>
+    <t>RVC4023</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>

--- a/target/test-classes/testdata/testDataLogin.xlsx
+++ b/target/test-classes/testdata/testDataLogin.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse workplace\SQAMAutomationDemo\IQF_SQA\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4494CCC-3A41-4E91-A25C-AFBDE961099B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CA0CFD-0802-4F57-BDEA-7459CD216581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchByDLValid" sheetId="2" r:id="rId1"/>
     <sheet name="SearchByDLInvalid" sheetId="4" r:id="rId2"/>
     <sheet name="SearchByPlateNumber" sheetId="5" r:id="rId3"/>
-    <sheet name="SearchLicense" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="SearchByEngineNumber" sheetId="6" r:id="rId4"/>
+    <sheet name="SearchByChassisNumber" sheetId="7" r:id="rId5"/>
+    <sheet name="SearchByEngineAndChassisNumber" sheetId="8" r:id="rId6"/>
+    <sheet name="SearchByMVFileNumber" sheetId="9" r:id="rId7"/>
+    <sheet name="SearchLicense" sheetId="3" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -82,6 +86,24 @@
   </si>
   <si>
     <t>RVC4023</t>
+  </si>
+  <si>
+    <t>engineno</t>
+  </si>
+  <si>
+    <t>ENG-TESTING101-0023</t>
+  </si>
+  <si>
+    <t>chassisno</t>
+  </si>
+  <si>
+    <t>CHA-TESTING101-0023</t>
+  </si>
+  <si>
+    <t>mvfileno</t>
+  </si>
+  <si>
+    <t>038500062515043</t>
   </si>
 </sst>
 </file>
@@ -519,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558B30F3-651B-4463-BC7F-C7EA0395B7B1}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,6 +591,224 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FACC8B-3328-43EA-91D9-B3EA29C53BB7}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{32C1E943-AA44-4F32-B234-296C1D09A09E}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{1144136B-5586-4345-8AD8-9E858114AE89}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FA24A6-07E8-4D6C-B1C9-680D6D6E5D1C}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5DC64C63-C971-4012-952E-3F28AA07E333}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{27E408C0-AFDF-4DA7-85A9-6C6F1D4CC229}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77AAAE1-BB5A-4738-A2AB-281844EF94C6}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{687679EE-2E73-4531-A8ED-DDC4FBABC358}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{4BC2054B-8C8E-496B-97E3-CFB8D8FFEB0D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A8FA71-0966-4EF8-915D-F363D5C750BC}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{09F37A60-9C25-4FB3-B87F-3851429186CA}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{1A3AAE98-2EBB-4CE0-AA5E-6F4B2D663785}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155CCF1E-5E2B-45E1-A2A3-3FC02C31D5A4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
